--- a/biology/Zoologie/Euploea_algea/Euploea_algea.xlsx
+++ b/biology/Zoologie/Euploea_algea/Euploea_algea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euploea algea est un insecte lépidoptère de la famille des Nymphalidae, de la sous-famille des Danainae et du genre Euploea.
 </t>
@@ -511,11 +523,48 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euploea algea a été nommé par Godart en 1819[1].
-Sous-espèces
-Euploea algea aglaina (Fruhstorfer, 1910)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea algea a été nommé par Godart en 1819.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euploea_algea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_algea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Euploea algea aglaina (Fruhstorfer, 1910)
 Euploea algea helcita (Boisduval, 1859) ou Euploea helcita en Nouvelle-Calédonie.
 Euploea algea abjecta (Butler, 1866) Outcast Crow présent à Palau.
 Euploea algea amycus (Miskin, 1890) présent en Australie.
@@ -547,38 +596,7 @@
 Euploea algea transpectus (Moore, 1883)
 Euploea algea  wallengreni (C. &amp; R. Felder, 1865)
 Euploea algea wiskotti (Röber, 1887)
-Euploea algea zonata (Druce, 1873) à Bornéo[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Euploea_algea</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euploea_algea</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Nom vernaculaire</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea algea se nomme en anglais Long Branded Blue Crow ou Outcast Crow[1],[2].
-</t>
+Euploea algea zonata (Druce, 1873) à Bornéo.</t>
         </is>
       </c>
     </row>
@@ -603,15 +621,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce grand papillon marron clair d'une envergure de 60 à 70 mm suivant les sous-espèces, présente un dessus avec des ailes antérieures suivant les sous-espèces avec de petites taches bleu métallique à totalement bleu métallique. 
-Le revers est marron clair parsemé de petits points blancs en quantité différente suivant les sous-espèces.
-Chenille
-Elle est marron avec bandes blanches et noires sur le dos[3].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea algea se nomme en anglais Long Branded Blue Crow ou Outcast Crow,.
 </t>
         </is>
       </c>
@@ -637,13 +654,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Ficus dont  Ficus tinctoria, Cynanchum et Ichnocarpus frutescens[1],[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce grand papillon marron clair d'une envergure de 60 à 70 mm suivant les sous-espèces, présente un dessus avec des ailes antérieures suivant les sous-espèces avec de petites taches bleu métallique à totalement bleu métallique. 
+Le revers est marron clair parsemé de petits points blancs en quantité différente suivant les sous-espèces.
 </t>
         </is>
       </c>
@@ -669,15 +688,125 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est marron avec bandes blanches et noires sur le dos.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euploea_algea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_algea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Ficus dont  Ficus tinctoria, Cynanchum et Ichnocarpus frutescens,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euploea_algea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_algea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea algea est présent en Asie du sud-est (Inde, sud de la Birmanie, Thaïlande, Malaisie) et en Océanie des iles Moluques à l'Australie[1].
-Biotope
-Protection
-Euploea algea abjecta présent aux Palaos et Euploea algea eleutho  présent à l'ile de Guam sont déclarés vulnérables[4],[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea algea est présent en Asie du sud-est (Inde, sud de la Birmanie, Thaïlande, Malaisie) et en Océanie des iles Moluques à l'Australie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euploea_algea</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_algea</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea algea abjecta présent aux Palaos et Euploea algea eleutho  présent à l'ile de Guam sont déclarés vulnérables,.
 </t>
         </is>
       </c>
